--- a/500all/speech_level/speeches_CHRG-114hhrg94217.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400379</t>
   </si>
   <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman.    And I agree with the chairman, you, General Austin, you have the toughest assignment in the military. The problems keep cropping up in many places. For, you know, over a decade we had the wars in both Afghanistan and Iraq. Those two areas are still problematic, but many others have been added since then. And I think the chairman did a pretty good exhaustive list looking at Syria and Yemen and other places.    And getting back to stability in that region is an enormous challenge. I will say that I think it sort of defies a comprehensive strategy where you come up with the strategy and then you just, you know, automatically plug it in no matter what happens. The problems evolve. They move in different directions, and they are contradictory.    Certainly, we are opposed to Assad's leadership in Syria. That, you know, bad leadership has led to all kinds of problems, but, you know, the alternative does not look much more attractive. So what is your solution? What do you do? There are no easy answers there, number one; number two, I think it would be a mistake for us to assume that it is either the U.S.'s responsibility or that we have the ability ourselves to solve these problems.    This is primarily a regional issue. This is primarily a problem of governance, leadership, religion, all manner of different issues colliding in that region. What we have to do is see how we can be part of helping to move those countries in a correct direction to get to greater stability. This is not something that the U.S. can come up with a plan and then go in there and implement it and fix Syria or fix Yemen or fix Iraq.    I think if we took that approach, that would be a mistake and would lead to greater pushback than it would to solutions. And obviously, one of the biggest problems in the region, aside from the Islamic extremists, like ISIL [Islamic State of Iraq and the Levant] and Al Qaeda, is the Sunni-Shia split, you know, most exemplified by the split between Saudi Arabia and Iran. That complicates everything. In the offensive that we have just heard about launched against Tikrit is launched against ISIL. Obviously that is, you know, one of our foremost enemies that we want to see defeated. One of the countries leading that offensive is Iran, another country that we are troubled by. How do you sort of deal with all of those different complex situations?    And I think what I want to hear today personally is not that you have the answer. I am not going to put that burden on you, to say here is the strategy that is going to solve the problem. I want to hear how the U.S. can best use its resources to make the problem better instead of worse, understanding that it defies any sort of simple solution or defies any sort of U.S. solution.    And let me just say on Iran, on the idea that somehow if we do a deal with them we make them a threshold nuclear power, they have already done that. They made that decision and they moved forward. There is no deal--I think the deal that everybody wants is where we go in and we tell Iran you give everything up and we get to keep the sanctions on you. Well, I don't think Iran is going to go for that, so we have got to figure out what is the best approach. And the approach the administration is trying to take is trying to contain them to make sure that they cannot break out and get to a nuclear weapon.    If we don't reach a deal, the risk of that happening goes up exponentially because then Iran has nothing to lose. The sanctions are there. How do we monitor it? How do we pursue it? If we can get an agreement that severely limits their nuclear program so that we can be confident that they won't be able to get a nuclear weapon for at least a year or more without us first knowing that they are trying to do it, I think that is a significant improvement. If we walk away, the status quo is not to our advantage. There is no reason to believe that they won't expand their nuclear situation that could lead to even greater conflict in the region.    Again, I would prefer the answer that says Iran just walks away from the nuclear program, no questions asked. I just don't see that on the table. And I think that is but one example of the complex set of choices that we face here that defy easy answers, that defy a U.S. policy that is just going to solve the problem.    So in a complicated world, like I said, I look forward to hearing what we can do to hopefully contain the problem and move things in the right direction, understanding the limitations of our ability to simply solve them.    With that, I yield back.    The Chairman. I am pleased to welcome back Ms. Christine Wormuth, Under Secretary of Defense for Policy; and General Lloyd Austin, Commander of the U.S. Central Command as our guest witnesses today.    Without objection, both of your full written statements will be made part of the record, and we would invite you at this point to summarize your statements before we go to questions.    Ms. Wormuth.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Wormuth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary Wormuth. Thank you, Chairman Thornberry, Ranking Member Smith, and members of the committee, for inviting me here today to talk about DOD [Department of Defense] strategy and posture in the Greater Middle East. It is a pleasure to be back here again this week to talk to you about a different and even more challenging part of the world.    It is also a great pleasure to be here with General Austin. We are very lucky to have him serving as our commander in CENTCOM. He is also, frankly, a terrific reminder of the overall quality of all of our men and women serving in the region today.    As you all know, our forces in CENTCOM are confronting many difficult global security challenges. New realities have forced us to take a hard look at our near- and long-term goals for our engagement in the Middle East. Although the Department will face many different challenges in the Middle East, as Ranking Member Smith noted, two issues are particularly critical and are at the top of our agenda: The first is how to degrade and ultimately defeat ISIL, and the second is preventing Iran from obtaining a nuclear weapon.    In Iraq and Syria, the Department is working with partners for a truly whole-of-government effort to try and degrade and ultimately defeat ISIL. We have over 2,600 U.S. service men and women currently in Iraq working with the Government of Iraq, and more than 60 countries participating in our global coalition against ISIL. We are making progress. This is going to be a long-term campaign and we need to be patient, but we are making progress.    We have blunted ISIL's momentum. We have degraded its ability to mass and maneuver forces. We have pressured or eliminated its leadership cells, and we have disrupted its command and control and supply lines. In short, we have put ISIL on the defensive. And I think you are seeing that, and I am sure General Austin will speak to that in more detail in various parts of Iraq right now.    But countering ISIL would not be possible without local partners in the lead. U.S. and coalition partners are supporting the Government of Iraq by assisting with training, equipping, and advising its armed forces. Last summer, we stood up our advise and assist teams to partner with local forces in the ISF [Iraqi security forces] and the Peshmerga, and early this year we began training these forces at four different sites across Iraq. I traveled to Iraq in January and was able to visit one of the sites myself, Taiji, where I was able to see firsthand the partnership that we have with Iraqi forces.    In addition to our efforts in Iraq to go after ISIL, we are also working with our coalition partners in Syria, and we are also working to build the capabilities of the moderate Syrian opposition there. We expect the training of our first DOD class of vetted opposition elements to begin--we expect to begin training them later this month. Our forces in the region are strengthening our partners' ability to fight terrorism locally, but ultimately, it is going to be Iraqi forces and Syrian fighters who will secure the gains against ISIL and inflict a lasting defeat.    To support what we are doing, the President has developed and transmitted to Congress an authorization for the use of military force that demonstrates a whole-of-government support for him to successfully prosecute the armed conflict against ISIL within reasonable limitations. Enacting a bipartisan ISIL-specific AUMF would provide a clear and powerful signal to the American people, to our allies, and to our enemies, and very importantly, I think, to our U.S. service men and women that the United States stands united to degrade and ultimately defeat ISIL. And I look forward to talking with you more this morning about the AUMF proposal.    Defeating ISIL is a major focus and challenge but so is Iran in the region. As the President has made clear, his top priority is preventing Iran from acquiring a nuclear weapon. Iran's nuclear ambitions continue to be a consistent area of concern for us in the Department of Defense. We are hopeful that the P5+1 negotiations will result in a comprehensive and verifiable deal that will ensure the peaceful nature of Iran's nuclear program. But at DOD, our job is to remain vigilant as well, and we do that by helping to underwrite negotiations with our robust posture and capabilities in the region, and we maintain a laser-like focus on that.    As the President has said publicly, we will do whatever is necessary to prevent Iran from acquiring a nuclear weapon, including the use of military force, if necessary, and we are postured to do that in the region today. Beyond Iran's nuclear program, we have other concerns about Iran's activities in the region. They are engaged in a variety of destabilizing activities across the region but also well beyond that. And even if we are successful in neutralizing Iran's nuclear threat through hard-nosed diplomacy, we will continue to support U.S. Government efforts to counter Iran and the full range of threats that it poses to our friends and allies in the region and beyond.    Even as we work to degrade and defeat ISIL and to prevent Iran from acquiring a nuclear weapon, we are also at the same time committed to moving to a smaller force in Afghanistan and consolidating the gains that we have made there over the past decade of international support to the Afghanistan Government. The U.S. mission in Afghanistan has helped support the Afghan people and has protected U.S. national interests by working with local partners to build up the capacity of the Afghan National Security Forces.    It is clear that we still have a lot of work to do in the next 2 years, but I think we have made some very positive strides, and I am particularly encouraged by the fact that President Ghani sees the U.S. and NATO [North Atlantic Treaty Organization] role and presence as a very important part of his strategy to bring stability and security to Afghanistan.    We are also going to continue to work with Pakistan and the Central Asian States to address existing and emerging threats in the region. Like Afghanistan, Pakistan is also facing a potent threat from extremists, and I think something we all saw tragically with the attack on the school in Peshawar. We are committed to continuing to improve our relationship with Pakistan by collaborating where our strategic interests come together and engaging diplomatically where they don't.    Meeting the range of challenges that we see in the CENTCOM AOR [area of responsibility] is going to take a lot of resources and effort, and it is important that we use those resources as effectively as possible, as Ranking Member Smith noted. The President's budget request for 2016 supports our strategy for the region and enables the services to continue to address our most critical needs, even as we get smaller and more capable over the next several years.    If sequestration returns, however, in 2016 and beyond, the Department's readiness would deteriorate markedly, which would harm our ability to respond promptly and efficiently when called upon. As a consequence, we would have fewer forces available to support operations and respond to crises in a region as vital as the Middle East.    This is a very dynamic time for our policy in the region. It is a challenging time. The Secretary has signaled his commitment to working with our government and international partners to shape a more secure region in the coming years. We are clear-eyed about the fiscal constraints we are facing, but we believe it is necessary even in the face of those constraints to maintain our commitment to protect our interests in the region and to combat the threats that we face there.    Thank you.    And I look forward to your questions.    [The prepared statement of Secretary Wormuth can be found in the Appendix on page 43.]    The Chairman. Thank you.    General.    General Austin. Good morning. Chairman Thornberry, Congressman Smith, distinguished members of the committee, I want to thank you for the opportunity to appear here today to talk about the broad efforts and the current posture of the United States Central Command.    Upfront and most importantly, I would like to thank all of you for your continued and strong support of our men and women in uniform and their families. I look forward to talking about them and about the exceptional contributions that they continue to make on behalf of the command and our Nation.    I am pleased to appear here this morning alongside Ms. Wormuth. Christine is widely respected by professionals throughout the Defense Department, both civilian and military, and we are most grateful for her support of our efforts at CENTCOM. I will join her in making a few brief opening comments and then we are prepared to answer your questions.    Ladies and gentlemen, much has happened in the CENTCOM area of responsibility since I last appeared before this committee a year ago. Indeed, the Central Region is today more volatile and chaotic than I have seen it at any other point, and the stakes have never been higher. The forces of evil that threaten our homeland and our interest in that strategically important part of the world thrive in unstable environments marked by poor governance, economic uncertainty, ungoverned or under-governed spaces. And therefore, it is essential that we be present and engaged and that we cultivate strong partnerships and continue to do our part to address emerging threats and to move the region in a direction of greater stability and security. And we must be properly resourced to do what is required to effectively protect and promote our interests.    At CENTCOM, in addition to doing all that we can to prevent problems from occurring, while shaping future outcomes, we spend a great deal of our time and energy managing real-world crisis. Over the past year, we dealt with conflicts in Iraq and Syria, we transitioned combat operations to a train, advise, and assist CT [counterterrorism]-focused mission in Afghanistan. At the same time, we dealt with a number of difficult challenges in Yemen, Egypt, Lebanon, and in a host of other locations throughout our area of responsibility. We actively pursued violent extremist groups, and we took measures to counter the radical ideologies that are espoused by these groups.    We also dealt with Iran, which continues to act as a belligerent force in the region, primarily through its Quds forces and through support to proxy actors, such as Lebanese Hezbollah. And while we are hopeful that an acceptable agreement will be reached with Iran with respect to its nuclear program, either way, whether we reach an agreement or we don't reach an agreement, Iran will continue to present a challenge for us going forward.    We are faced with a number of challenges in our region; however, I firmly believe that challenges also present opportunities, and we make progress primarily by pursuing these opportunities, and we do pursue them. And I am confident that our broad efforts are having a measurable impact. Of course, the most immediate threat facing us now is a threat posed by ISIL or Daesh [Arabic acronym for ISIL]. This barbaric organization must be defeated, and it will be defeated.    We are currently in the process of executing our regional military campaign plan, and I am pleased to report that we are making significant progress. At the outset, we said that we would need to halt ISIL's advance, and we have done that in Iraq. We said that we are going to have to regenerate and restructure Iraq's security forces to help them re-establish the border, and we are in the process of doing that right now.    We said that we would have to help our partners in the region to bolster their defenses against ISIL, and we continue to help our friends in Jordan and Lebanon and Turkey. We said that we would have to build credible ground forces to counter ISIL in Syria and to guard against ungoverned spaces, and we will soon begin doing that as a part of our Syria train and equip program.    So ladies and gentlemen, we are making progress. In fact, we are about where we said that we would be in the execution of our military campaign plan, which supports the broader whole-of-government strategy that is designed to counter ISIL. And we are having significant effects on the enemy.    Since commencing our air operations in early August, just 7 months ago, we have killed more than 8,500 ISIL fighters, we have destroyed hundreds of their vehicles along with tanks and heavy weapons systems. We have significantly degraded his capability, his ability to command and control his forces, and also his primary sources of revenue, namely, his oil refineries and his crude collection points.    The fact is that he can no longer do what he did at the outset, which is to seize and to hold new territory. He has assumed a defensive crouch in Iraq. And although he has greater freedom of movement in Syria, he is largely in a defensive there as well. He has begun to expand into other areas, namely North Africa, and in part because he knows that he is losing in Iraq and Syria and he needs to find other ways to maintain his legitimacy.    In going forward, we should expect to see this enemy continue to conduct limited attacks and to orchestrate horrific scenes in order to create IO [information operations] opportunities and to distract and to intimidate. But make no mistake, ISIL is losing this fight, and I am certain that he will be defeated. Again, he will be defeated.    Having said that, there is still work to be done to get to that point, and we intend to continue to execute the campaign as designed, and I say that because how we go about this is very important. If we don't first get things under control in Iraq, where there is a government that we can work with and with some reliable security forces that are available, if we don't get things right there first before expanding our efforts in Syria, then we risk making matters worse in both countries.    But done the right way, in light of the limitations that exist, I believe that we can and we will be successful in our efforts to defeat ISIL. And at the same time, we can be assured continued progress in pursuit of our principal goal, which is to move this strategically important region in the direction of increased stability and security.    Going forward, we will all be required to make tough choices, and we will need to find ways to do more or at least as much with less than the current fiscal environment. That said, I remain concerned by the fact that capability reductions can and will impact our ability to respond to crisis, and especially in the highly volatile Central Region. The resulting loss of flexibility makes the U.S. and our interests increasingly vulnerable to external pressures.    And so I would ask Congress to do its part to make sure that we avoid sequestration and other resourcing limitations that serve to degrade the readiness of America's military forces.    Chairman Thornberry, Ranking Member Smith, members of the committee, I want to thank you once more for the strong support that you continue to show to our service members, our civilians, and their families. They are the very best in the world at what they do. They continue to demonstrate absolute selflessness and they make enormous sacrifices in support of the mission and in support of one another. I am incredibly proud of them and I know that you are as well.    So thank you again for this opportunity, and I look forward to answering your questions.    [The prepared statement of General Austin can be found in the Appendix on page 49.]    The Chairman. Thank you, General. We share your sentiment for those who serve our Nation, including yourself.    I don't think we have time to begin the questioning, so the committee is going to stand in recess until just after the joint meeting where we will resume.    In the meantime, you all please enjoy our hospitality as best you can.    [Recess.]    The Chairman. The committee will come to order.    Again, Ms. Wormuth, and, General, thank you for your patience. And we understand the inconvenience of this coming and going, but we appreciate you all being here. Members will continue to come in as they come back from the joint meeting.    I don't know, General, did you have a chance to listen to the Prime Minister's speech?    General Austin. Yes, sir, I did.    The Chairman. Okay. You know, I was struck, your comments in your opening statement, about Iran's other activities other than its nuclear programs. And that was certainly a point that was highlighted by the Prime Minister.    You spend a lot of time dealing with military leaders throughout your region in the Middle East and North Africa. My question to you is: If there is an agreement that says that Iran shall not be closer to--that has the effect of having Iran not closer than 1 year of having a nuclear weapon, what, in your estimation, would be the reaction of other countries in the region? And I am thinking particularly about the Saudis, the Turks, the Egyptians, people who are interested in this negotiation other than Israel. What would be their reaction to that?    General Austin. Sir, no matter what the outcome is, I think there will be--always be some degree of speculation. I think the first thing that they will want to know is what the details of the agreement are before they make an assessment on how it affects their interests going forward and their security.    To your point that you made earlier, sir, I think the people--the leaders in the region certainly believe that Iran's quest for a nuclear weapon is a threat to the region. But they are also equally concerned about Iran's ability to mine the Straits, Iran's cyber capabilities, Iran's ICBM [intercontinental ballistic missile] capability or ballistic missile capability, as well as the activity of their Quds forces, which is unhelpful. And so whether we get a deal or don't get a deal, I think they will still share those concerns.    As we negotiate a deal--and I certainly hope that we are able to negotiate one, I think one of the things that we will have to do early on is to go and reassure our allies that we are going to be with them going forward. And we have--we have interest in the region that we will have to protect and we will certainly--certainly move to do that early on.    The Chairman. Yeah. When I have traveled in the region and also visited with some of their ambassadors here in Washington, one of the concerns I have heard expressed is that having Iran be a threshold nuclear state, basically being able to have it within a year or less, will embolden them with these other kind of activities that you talked about because, then, they will have less concern that the regime is threatened and, therefore, they will be more aggressive in pushing their proxies and potentially naval matters in the Persian Gulf and so forth. Is that some of the concerns that you have heard that you think allies will need to be reassured about?    General Austin. Yes, sir. I think there are arguments on both side of the fence in terms of, you know, what people speculate that Iran's reaction will be and what we will need to do to counter those reactions or hedge against unhelpful activity.    The Chairman. Yeah. Well, I am concerned not only about Israel's reaction, which we just heard, but there are a number of other countries that are vitally interested in this. And so it seems to me that that also has to be taken into account. There are lots of topics we can and should talk about, including ISIS [Islamic State of Iraq and Syria], Yemen, and Afghanistan.    But at this point, I am going to yield to Mr. Smith and other members for questions they may have.</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>400209</t>
   </si>
   <si>
-    <t>Walter B. Jones</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jones. Mr. Chairman, thank you very much. And to the two panelists, thank you for being here and for your service to our Nation.    I am always interested--I have been on this committee for 20 years, so I go back to the Iraq war and 9/11 and all the tragedies of 9/11.    And I heard you, Madam Secretary, and also, General Austin. You mentioned, Madam Secretary, sequestration. General Austin keeps talking about resources.    We have had the service chiefs in here recently to talk about their budgets, and I know the world is very unsettled. I know that we have a certain responsibility, first, to the American people and then to our friends in other regions of the world. I don't dispute that at all.    But I just wonder, when you--you know, you are talking about the training these security forces in Afghanistan that it is--you know, still it is going well or it is going okay--maybe is a better word than ``well.'' It is a long process.    I just wondered--I am not a great student of history, but I did study history. I just wonder how much longer can we as a nation--and you are a national figure because you are in the administration. General, you are an outstanding military man yourself.    How much longer can we keep going down this road and expect our military to continue to do this and that when their budgets are being cut behind them? And I have been a strong proponent, if we are going to get serious about the world situation, we need to have a war tax. We cannot keep playing this budget game that we keep playing here in Washington and have you come testify. And then we have to battle this thing on the floor of the House, the chairman and ranking member do, of trying to salvage whatever money we can salvage.    So my point is: Are we getting to a point that--as I think General Austin said, aren't we at a point that we need to say the administration military leaders, you know, you and Saudi, you have got a lot of troops, put your troops on the ground. We have got 100 to 200,000 Iraqis in the military. I know what we are trying to do. Some approximations I have heard is 20 to 30,000 fighters. General Austin, you say we have already killed 8,000. So let's take the high figure of 30,000 jihadists and reduce that to 20. I don't understand the numbers of this thing, the financial numbers, nor do I understand the numbers of kill.    And how in the world are we going to continue to expand and send our troops around the world and try to take care of everybody else's problems if they won't step up and take care of it themselves and say to America, ``You back us up, but we are going to be the frontline troops''? I don't know--I am not criticizing the administration. I just don't know how much longer this game can keep going on.</t>
   </si>
   <si>
@@ -130,9 +121,6 @@
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman, and thank you to the witnesses.    Again, just to go back for a moment regarding some of your testimony concerning our relationship with the Israeli Government and military. Again, General Dempsey has been before this committee a number of times and talked about how the mil-to-mil connection with Israel has a special sort of quality in nature that really is almost not matched anywhere in the world. And I was wondering, General, if you could sort of just kind of characterize that in terms of your own experience?    And, Ms. Wormuth, you know, you mentioned, you know, that this is something that is ongoing and that will be there with or without an agreement. I was wondering, again, if you could just sort of underscore that point?    General Austin. And, sir, I believe the question is, our military-to-military relationship with Israel?    As you know, sir, Israel falls in European Command's area of responsibility. But we certainly--since it borders our region of responsibility or our area of responsibility, we certainly see a need to maintain good connectivity.    I had a great relationship with the former chief of defense there, with Benny Gantz. And I have not had a chance to meet the new--or his replacement, but I have met him on a VTC [video teleconference] where he and Benny and I, you know, along with General Breedlove, were able to share some ideas and concerns.    And so my hope--and I know this will be the case--is that we will continue to have a very, very strong relationship going forward. But, again, that--that--Israel is outside of my area of responsibility.</t>
   </si>
   <si>
@@ -148,9 +136,6 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman.    General, recently we have heard a lot about Patriot batteries and the Army air defenders being stretched to their breaking point. And, in fact, recently deputy commander of the 32nd Air and Missile Defense Command stated this: ``Today we have air and missile defense forces in nine countries. On any given day, nearly half of the Army's Patriot batteries are outside the continental United States and we have begun forward deploying THAAD [Terminal High Altitude Area Defense] batteries. We are rapidly approaching an inflection point where we face the risk of breaking our AMD, our air missile defense force.''    I have two questions. First, as the imminent modernization of this system creates further strains on the deployment capability, what are your concerns as a combatant commander? And the second question is, what are the alternatives to drawing down force structure to make sure we don't deny our combatant commanders the capability they need?    General Austin. Sir, on the first question, in terms of a combatant commander's perspective on this, while I certainly share the Army services' concerns in being able to manage the op [operations] tempo of its people, I think that is very, very important. But as you take a look at the emerging threats in the region, in the Central Region, certainly I remain concerned about Iran's ballistic missile capability. Now they continue to gain more capability and that capability is more accurate and more lethal as we go forward. So I think there is a need--there will remain a need for a good air defense capability to make sure that we protect our interest in the region and also to be able to work with our allies in the region.    In terms of ways to mitigate this, we are going to have to continue to work with the allies to help them develop capacity and capability to, again, not only take care of their own sovereign territory, but also add to, you know, the greater potential, the greater capability in the region. And we have a long way to go in that endeavor, but I think that that is--that is one of the major ways that we can look to address this issue going forward.</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t>412254</t>
   </si>
   <si>
-    <t>Niki Tsongas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman. And thank you both for being here. Sorry we had that break that took us away for such a while.    You know, it has been said--and I think as we--in hearing Mr. Netanyahu's speech today and hearing your comments, that the challenges in the Middle East are like, at least, a three-dimensional chess game, and I think actually there are probably even more layers to that.    And I think the fact that we have been given the opportunity to consider an AUMF is very important. It allows the Congress to weigh in and think through the implications of what we are doing and how best to achieve success. But, again, given that it is so multidimensional, it is actually rather hard to grapple with. I think we are all struggling with that.    But I--and I think--I just happened to read in the paper today that Iran is actually playing a significant role in Tikrit. That their forces are there, you know, helping--helping push back on ISIL. And I think that highlights the complexity of the region. While we are trying to negotiate an agreement on their nuclear weaponization at the same time, we are taking--or taking advantage of their assistance. And I am curious, General Austin, how you think this through?    General Austin. Well, it certainly is a complex situation, ma'am. Thanks.    Obviously, we are focused on helping--providing support to the country, the Government of Iraq in its efforts to counter ISIL. And this is a--this is an Iraqi effort. The Iraqis have to do this. We will enable their efforts with our air power, with our advice, and the assistance in any way we can. But at the end of the day, they have to be able to do this.    And, certainly, there are areas in the eastern part of the country that they have--leading up to this point that they have gained assistance from their neighbor with and the popular mobilization forces that are there working. So if you look at the areas in the eastern part of the country, Jalula, Khanaqin, they have worked together in those areas. And then leading up to this, they have done a number of things to get to this point.    So, in terms of sorting this out, again, our focus is on the Government of Iraq and working with the Government of Iraq to provide assistance to them to counter ISIL.</t>
   </si>
   <si>
@@ -184,9 +166,6 @@
     <t>400141</t>
   </si>
   <si>
-    <t>Trent Franks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Franks. Well, thank you, Mr. Chairman.    Thank you both for being here.    Ms. Wormuth, I would kind of take off on a question Ms. Tsongas touched on. Can you provide us with the--sort of the official DOD policy on military cooperation with Iran forces on the ground in Iraq?</t>
   </si>
   <si>
@@ -205,9 +184,6 @@
     <t>412382</t>
   </si>
   <si>
-    <t>John Garamendi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Garamendi. Thank you, Mr. Chairman.    Secretary Wormuth and General Austin, thank you very much for your service and for the information you have provided for us today. I appreciate that.    I want to follow up on some of the questions that my colleague was asking a moment ago and very specifically, General, can ISIS be degraded and defeated without U.S. ground forces, i.e., infantry brigades, artillery, armor?    General Austin. Sir, I think they can, and they will. But they will use--we will use the Iraqi security forces and the Peshmerga forces to do this. And I think, you know, we have advisors on the ground and how we employ those advisors will be--you know I will make a decision on that and request for authorities on a case-by-case basis.</t>
   </si>
   <si>
@@ -241,9 +217,6 @@
     <t>412409</t>
   </si>
   <si>
-    <t>Richard B. Nugent</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman. And thank you, Ms. Wormuth, and, General Austin, particularly for your service to this country.    You know, when I hear--when we talk about Iran and Iran's troops or advisors or whatever they are calling them assisting Iraq, what I worry is that the sectarian violence that Iran really does push. And in 2011, you know, when Maliki was beholding to Iran and Hezbollah actually attacked our troops with an IRAM [improvised rocket assisted mortar], Iranian warhead and killed five of our 1st Infantry Division kids the night that I was in Iraq, the night that my son was with the 1st Infantry Division.    So I wonder how this is going to play out if we allow Iran to have that kind of play today if, in fact, we do have to use some special forces or something other than a brigade-sized team to assist the Iraqis? How is that going to play out, particularly with Iran's past performance in supporting terrorism across the world but particularly Hezbollah and particularly killing American troops just, you know, 4 years ago?    General Austin. Sir, I certainly share your concern with the possibility of increasing sectarian activity as we go forward. And this is something that we continue to emphasize, again, with the Government of--to the Government of Iraq that, you know, they must be mindful of this. They must control the activities of Shia militia. They must guard against any kind of atrocities going forward of those elements. And they have to be, most importantly, inclusive of the Sunnis and the Kurds. And I think that is the biggest piece in this equation. And when that is done, I think you see the Sunnis coming into the government a bit more and balancing things out.    So I--you know, I was in Iraq. I was a commander of Iraq when that IRAM attack occurred. I was the first senior officer on the scene there to--you know, after that attack and worked with Colonel Gainey who was then Lieutenant Colonel Gainey. Now he is 0-6 [Colonel] Gainey. But some tremendous 1st [Infantry] Division soldiers there, great--great courage and great discipline.    But clearly I share your concern. We are going to do everything we can to encourage the Iraqi Government to stay focused on this, to be inclusive of the Sunnis and the Kurds. And I think, if they do that, I think this comes out in a better place.</t>
   </si>
   <si>
@@ -262,9 +235,6 @@
     <t xml:space="preserve">    Mr. Nugent. Okay.    Thank you, Mr. Chairman.    Sorry I ran out of time.    The Chairman. Thank you.    Mr. O'Rourke.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    Ms. Wormuth, General Austin said that ISIS could be defeated without using U.S. ground troops. I am assuming--and, General Austin, you alluded to this--that would be primarily through the use of Iraqi ground troops. Are there any other partners who have committed to joining those Iraqi ground troops to defeat ISIS in Iraq?</t>
   </si>
   <si>
@@ -331,9 +301,6 @@
     <t>412564</t>
   </si>
   <si>
-    <t>Brad R. Wenstrup</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Chairman. And thank you both for being here today to take our questions and inform us on many things.    My first question is: How many nations are considered part of the coalition of this fight in Iraq today?</t>
   </si>
   <si>
@@ -370,9 +337,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you very much, Mr. Chairman.    Thank you both for being here.    Ms. Wormuth, following up on a statement that you made a few minutes ago, why is it the administration's position that a single federal Iraqi state is necessary to defeating ISIS when the reality is that it is this single federal Shia-led, Iranian-influenced central government in Baghdad that has oppressed the Sunni people, created the oxygen for ISIS to come in and take advantage where the Sunnis have been forced to look in that direction in order to escape the oppression and persecution of this Shia-led government, and that this is the main cause for ISIS growing in its presence and strength in Iraq today?</t>
   </si>
   <si>
@@ -397,9 +361,6 @@
     <t>412648</t>
   </si>
   <si>
-    <t>Elise M. Stefanik</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman.    And thank you to both of the witnesses here today.    We have spoken a lot about Iraq, Iran, and I want to turn toward Syria.    Ms. Wormuth, what is the U.S. policy toward the Assad regime? And the reason I am asking this question is, I believe that the brutality of the Assad regime has contributed greatly to the ability for ISIS to rise and gain strongholds in Syria.</t>
   </si>
   <si>
@@ -424,9 +385,6 @@
     <t>412632</t>
   </si>
   <si>
-    <t>Seth Moulton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moulton. Thank you, Mr. Chairman.    And General Austin, thank you very much for your service.    And Ms. Wormuth, thank you for your service as well.    Ms. Wormuth, you said earlier that Maliki sectarian approach to governing is how we got here, and there are a lot of nodding heads around the room. What are we doing in our plan going forward to ensure that that doesn't happen again?</t>
   </si>
   <si>
@@ -475,9 +433,6 @@
     <t>412444</t>
   </si>
   <si>
-    <t>Vicky Hartzler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Hartzler. Thank you, Mr. Chairman.    Thank you so much for being here today. Very important questions and topics. And one that I think hasn't been touched on, I am very concerned about, is the basically eradication of Christians in Iraq. At one time, over 1.5 million Christians there. Now we estimate between, what, 200 and 300,000 perhaps. Maybe you have some insights on the numbers there. But certainly that is the birthplace of many of famous Christian historic sites.    And the reports last week of ISIL burning hundreds or thousands of years old documents and destroying religious sites is certainly very, very disturbing.    So first, I was wondering if you could give me an update on the situation for Christians there, both in their persons and their safety, how many are still there, what their situation is, their well-being, but then also give me an update on the ISIL strategy and how many historic sites have been destroyed?</t>
   </si>
   <si>
@@ -511,9 +466,6 @@
     <t>412611</t>
   </si>
   <si>
-    <t>Martha McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    General Austin, I want to switch to the topic of combat search and rescue [CSAR]. And I was retired colonel A-10 pilot but also ran the Joint Search and Rescue Center for CENTCOM Forward for JTF-SWA [Joint Task Force-Southwest Asia] in the early days of the Afghanistan operations.    And my concern is, with our operations in Iraq and Syria, I have been hearing from some colleagues that we have limitations on the combat search and rescue. The Jordanian pilot, as you know, has strategic implications with how he was murdered in a horrific way.    And we have got our pilots flying single-engine F-16s into Iraq and Syria today. And in order to make sure that if they have to eject, even if they are not shot down, that we have somebody overhead right away, on-scene commander and then somebody else right behind them to immediately locate, communicate, and protect them, shoot anything that moves, that comes anywhere near them, in that geography you can't hide. It takes a very robust capability of ground-alert assets, airborne-alert assets.    The A-10, which I flew, is the only one that provides a rescue mission commander, SANDY One and SANDY Two, to be able to get to them and then the helicopter should go in and get them. And we have got to snatch them right away, as you know, because if they get picked up then it is disastrous consequences, not just for them and their family but strategically for our country. Can you imagine if we had now an American pilot that is the next one captured?    So I know you know this is a challenge, but my question is, and I am asking for a classified briefing, what was the CSAR posture when we first started flying sorties there and specifically when the Jordanian pilot ejected, and has it changed since then? And are you limited at all from the arbitrary 3,100-person boots-on-the-ground cap by this administration to make sure that we have a posture that provides what I just described; that we have a covenant with those that are flying sorties are on the ground; that we are going to go get them, that we are going to rescue them.    I have concerns from talking to my colleagues in the military that there is a pretty damning after-action report from the Jordanian pilot situation, and I am deeply concerned that we don't have the combat search and rescue capability.    Also, if you only have 12 A-10s over there and they are the only ones that can do the SANDY mission plus close air support, why don't we bring more over? What are your limitations? What can we do moving forward?    General Austin. Let me assure you, Congresswoman, that I won't put one pilot in the air if I don't feel like I have the adequate means to recover those pilots. In working with my senior airmen and my air component, I think they have done a masterful job of ensuring that we have adequate coverage in a number of places to address our CSAR issues.    As you know, we have forward-deployed CSAR capabilities currently, and we also are looking to perhaps put CSAR capability in other places, like Turkey, and we continue to work that.    So I am confident that we have the adequate means to take care of our pilots, and if I feel that the risk has increased to the point where I need to, we will put CSAR assets in the air while the mission is being conducted. And we have done that and we will continue to do that.</t>
   </si>
   <si>
@@ -544,9 +496,6 @@
     <t>412538</t>
   </si>
   <si>
-    <t>Jackie Walorski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Walorski. Thank you, Mr. Chairman.    General Austin, you have been deployed on several operational tours in both Iraq and Afghanistan. What limitations have other AUMFs placed on your missions and operational abilities, number one; number two, if in your operational experience you have been most effective as accomplishing your mission without AUMF limitations, why would this AUMF provide you with the quote, unquote, ``flexibility'' you need to accomplish this mission?    General Austin. Well, you know, certainly, I have been involved in, over the last decade-plus, in fighting in Afghanistan and Iraq. And we have had what we needed to have to accomplish our goals and objectives in both instances.    In terms of any limitations that this current--the proposed AUMF would place on us, the way it is laid out to--I think we will have what we need, we will have the flexibility to address the counter-ISIL campaign.    And so to accomplish what has been given to me in this current mission set, I think we have the flexibility to get the work done.</t>
   </si>
   <si>
@@ -563,9 +512,6 @@
   </si>
   <si>
     <t>412271</t>
-  </si>
-  <si>
-    <t>Mike Coffman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. No, Mr. Chairman.    The Chairman. Okay.    Thank you, all, for your patience. A vote came just in time.    And so we appreciate both of you and the challenges that you face in sorting through a very difficult, messy situation in the Central Command area of responsibility.    Thank you again for being here today, and we will look forward to further discussions.    With that, the hearing stands adjourned.</t>
@@ -967,11 +913,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -991,13 +935,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1019,11 +961,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1043,13 +983,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1071,11 +1009,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1097,11 +1033,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1123,11 +1057,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1147,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1175,11 +1105,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1199,13 +1127,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1227,11 +1153,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1251,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1279,11 +1201,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1303,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1331,11 +1249,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1355,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1383,11 +1297,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1407,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1433,13 +1343,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1459,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>33</v>
-      </c>
-      <c r="H21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1485,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1511,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1537,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>37</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1563,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
         <v>38</v>
-      </c>
-      <c r="H25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1589,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" t="s">
-        <v>44</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1615,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" t="s">
-        <v>44</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1641,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" t="s">
-        <v>44</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1667,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
         <v>43</v>
-      </c>
-      <c r="G29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1693,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1719,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1745,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1771,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1797,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1823,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1849,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1875,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1901,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1927,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1953,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1979,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2005,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2031,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G43" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2057,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2083,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
         <v>62</v>
-      </c>
-      <c r="G45" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2109,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
         <v>63</v>
-      </c>
-      <c r="H46" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2135,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2161,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2187,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2213,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
-      </c>
-      <c r="G50" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2239,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2265,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2291,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2317,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2343,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>82</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2369,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2395,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>82</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2421,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2447,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>82</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2473,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2499,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>82</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2525,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2551,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>82</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2577,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2603,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>82</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2629,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2655,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>82</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2681,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2707,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>82</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2733,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2759,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>82</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2785,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2811,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>82</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2837,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2863,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>82</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2889,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
-      </c>
-      <c r="G76" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2915,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2941,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>104</v>
-      </c>
-      <c r="G78" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2967,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2993,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>104</v>
-      </c>
-      <c r="G80" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3019,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3045,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>104</v>
-      </c>
-      <c r="G82" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3071,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>104</v>
-      </c>
-      <c r="G83" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3097,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>104</v>
-      </c>
-      <c r="G84" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3123,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
+        <v>94</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
         <v>104</v>
-      </c>
-      <c r="G85" t="s">
-        <v>105</v>
-      </c>
-      <c r="H85" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3149,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>104</v>
-      </c>
-      <c r="G86" t="s">
+        <v>94</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
         <v>105</v>
-      </c>
-      <c r="H86" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3175,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>117</v>
-      </c>
-      <c r="G87" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3201,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3227,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>117</v>
-      </c>
-      <c r="G89" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3253,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3279,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>117</v>
-      </c>
-      <c r="G91" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3305,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>117</v>
-      </c>
-      <c r="G92" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3331,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>117</v>
-      </c>
-      <c r="G93" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3357,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>126</v>
-      </c>
-      <c r="G94" t="s">
-        <v>127</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3383,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3409,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>126</v>
-      </c>
-      <c r="G96" t="s">
-        <v>127</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3435,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3461,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>126</v>
-      </c>
-      <c r="G98" t="s">
-        <v>127</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3487,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3513,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>126</v>
-      </c>
-      <c r="G100" t="s">
-        <v>127</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3539,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>135</v>
-      </c>
-      <c r="G101" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3565,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3591,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>135</v>
-      </c>
-      <c r="G103" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3617,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3643,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>135</v>
-      </c>
-      <c r="G105" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3669,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3695,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>135</v>
-      </c>
-      <c r="G107" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3721,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>135</v>
-      </c>
-      <c r="G108" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3747,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>135</v>
-      </c>
-      <c r="G109" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3773,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>135</v>
-      </c>
-      <c r="G110" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3799,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>135</v>
-      </c>
-      <c r="G111" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3825,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3851,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
+        <v>122</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
         <v>135</v>
-      </c>
-      <c r="G113" t="s">
-        <v>136</v>
-      </c>
-      <c r="H113" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3877,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3903,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>135</v>
-      </c>
-      <c r="G115" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3929,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>152</v>
-      </c>
-      <c r="G116" t="s">
-        <v>153</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3955,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3981,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4007,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>152</v>
-      </c>
-      <c r="G119" t="s">
-        <v>153</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4033,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4059,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>152</v>
-      </c>
-      <c r="G121" t="s">
-        <v>153</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4085,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4111,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>152</v>
-      </c>
-      <c r="G123" t="s">
-        <v>153</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4137,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4163,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>152</v>
-      </c>
-      <c r="G125" t="s">
-        <v>153</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4189,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>164</v>
-      </c>
-      <c r="G126" t="s">
-        <v>165</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4215,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>164</v>
-      </c>
-      <c r="G127" t="s">
-        <v>165</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4241,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>164</v>
-      </c>
-      <c r="G128" t="s">
-        <v>165</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4267,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>164</v>
-      </c>
-      <c r="G129" t="s">
-        <v>165</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4293,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>164</v>
-      </c>
-      <c r="G130" t="s">
-        <v>165</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4319,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4345,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4371,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4397,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4423,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>175</v>
-      </c>
-      <c r="G135" t="s">
-        <v>176</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4449,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>175</v>
-      </c>
-      <c r="G136" t="s">
-        <v>176</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4475,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>175</v>
-      </c>
-      <c r="G137" t="s">
-        <v>176</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4501,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>175</v>
-      </c>
-      <c r="G138" t="s">
-        <v>176</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4527,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G139" t="s">
-        <v>176</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4553,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>182</v>
-      </c>
-      <c r="G140" t="s">
-        <v>183</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94217.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>400379</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman.    And I agree with the chairman, you, General Austin, you have the toughest assignment in the military. The problems keep cropping up in many places. For, you know, over a decade we had the wars in both Afghanistan and Iraq. Those two areas are still problematic, but many others have been added since then. And I think the chairman did a pretty good exhaustive list looking at Syria and Yemen and other places.    And getting back to stability in that region is an enormous challenge. I will say that I think it sort of defies a comprehensive strategy where you come up with the strategy and then you just, you know, automatically plug it in no matter what happens. The problems evolve. They move in different directions, and they are contradictory.    Certainly, we are opposed to Assad's leadership in Syria. That, you know, bad leadership has led to all kinds of problems, but, you know, the alternative does not look much more attractive. So what is your solution? What do you do? There are no easy answers there, number one; number two, I think it would be a mistake for us to assume that it is either the U.S.'s responsibility or that we have the ability ourselves to solve these problems.    This is primarily a regional issue. This is primarily a problem of governance, leadership, religion, all manner of different issues colliding in that region. What we have to do is see how we can be part of helping to move those countries in a correct direction to get to greater stability. This is not something that the U.S. can come up with a plan and then go in there and implement it and fix Syria or fix Yemen or fix Iraq.    I think if we took that approach, that would be a mistake and would lead to greater pushback than it would to solutions. And obviously, one of the biggest problems in the region, aside from the Islamic extremists, like ISIL [Islamic State of Iraq and the Levant] and Al Qaeda, is the Sunni-Shia split, you know, most exemplified by the split between Saudi Arabia and Iran. That complicates everything. In the offensive that we have just heard about launched against Tikrit is launched against ISIL. Obviously that is, you know, one of our foremost enemies that we want to see defeated. One of the countries leading that offensive is Iran, another country that we are troubled by. How do you sort of deal with all of those different complex situations?    And I think what I want to hear today personally is not that you have the answer. I am not going to put that burden on you, to say here is the strategy that is going to solve the problem. I want to hear how the U.S. can best use its resources to make the problem better instead of worse, understanding that it defies any sort of simple solution or defies any sort of U.S. solution.    And let me just say on Iran, on the idea that somehow if we do a deal with them we make them a threshold nuclear power, they have already done that. They made that decision and they moved forward. There is no deal--I think the deal that everybody wants is where we go in and we tell Iran you give everything up and we get to keep the sanctions on you. Well, I don't think Iran is going to go for that, so we have got to figure out what is the best approach. And the approach the administration is trying to take is trying to contain them to make sure that they cannot break out and get to a nuclear weapon.    If we don't reach a deal, the risk of that happening goes up exponentially because then Iran has nothing to lose. The sanctions are there. How do we monitor it? How do we pursue it? If we can get an agreement that severely limits their nuclear program so that we can be confident that they won't be able to get a nuclear weapon for at least a year or more without us first knowing that they are trying to do it, I think that is a significant improvement. If we walk away, the status quo is not to our advantage. There is no reason to believe that they won't expand their nuclear situation that could lead to even greater conflict in the region.    Again, I would prefer the answer that says Iran just walks away from the nuclear program, no questions asked. I just don't see that on the table. And I think that is but one example of the complex set of choices that we face here that defy easy answers, that defy a U.S. policy that is just going to solve the problem.    So in a complicated world, like I said, I look forward to hearing what we can do to hopefully contain the problem and move things in the right direction, understanding the limitations of our ability to simply solve them.    With that, I yield back.    The Chairman. I am pleased to welcome back Ms. Christine Wormuth, Under Secretary of Defense for Policy; and General Lloyd Austin, Commander of the U.S. Central Command as our guest witnesses today.    Without objection, both of your full written statements will be made part of the record, and we would invite you at this point to summarize your statements before we go to questions.    Ms. Wormuth.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Wormuth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Secretary Wormuth. Thank you, Chairman Thornberry, Ranking Member Smith, and members of the committee, for inviting me here today to talk about DOD [Department of Defense] strategy and posture in the Greater Middle East. It is a pleasure to be back here again this week to talk to you about a different and even more challenging part of the world.    It is also a great pleasure to be here with General Austin. We are very lucky to have him serving as our commander in CENTCOM. He is also, frankly, a terrific reminder of the overall quality of all of our men and women serving in the region today.    As you all know, our forces in CENTCOM are confronting many difficult global security challenges. New realities have forced us to take a hard look at our near- and long-term goals for our engagement in the Middle East. Although the Department will face many different challenges in the Middle East, as Ranking Member Smith noted, two issues are particularly critical and are at the top of our agenda: The first is how to degrade and ultimately defeat ISIL, and the second is preventing Iran from obtaining a nuclear weapon.    In Iraq and Syria, the Department is working with partners for a truly whole-of-government effort to try and degrade and ultimately defeat ISIL. We have over 2,600 U.S. service men and women currently in Iraq working with the Government of Iraq, and more than 60 countries participating in our global coalition against ISIL. We are making progress. This is going to be a long-term campaign and we need to be patient, but we are making progress.    We have blunted ISIL's momentum. We have degraded its ability to mass and maneuver forces. We have pressured or eliminated its leadership cells, and we have disrupted its command and control and supply lines. In short, we have put ISIL on the defensive. And I think you are seeing that, and I am sure General Austin will speak to that in more detail in various parts of Iraq right now.    But countering ISIL would not be possible without local partners in the lead. U.S. and coalition partners are supporting the Government of Iraq by assisting with training, equipping, and advising its armed forces. Last summer, we stood up our advise and assist teams to partner with local forces in the ISF [Iraqi security forces] and the Peshmerga, and early this year we began training these forces at four different sites across Iraq. I traveled to Iraq in January and was able to visit one of the sites myself, Taiji, where I was able to see firsthand the partnership that we have with Iraqi forces.    In addition to our efforts in Iraq to go after ISIL, we are also working with our coalition partners in Syria, and we are also working to build the capabilities of the moderate Syrian opposition there. We expect the training of our first DOD class of vetted opposition elements to begin--we expect to begin training them later this month. Our forces in the region are strengthening our partners' ability to fight terrorism locally, but ultimately, it is going to be Iraqi forces and Syrian fighters who will secure the gains against ISIL and inflict a lasting defeat.    To support what we are doing, the President has developed and transmitted to Congress an authorization for the use of military force that demonstrates a whole-of-government support for him to successfully prosecute the armed conflict against ISIL within reasonable limitations. Enacting a bipartisan ISIL-specific AUMF would provide a clear and powerful signal to the American people, to our allies, and to our enemies, and very importantly, I think, to our U.S. service men and women that the United States stands united to degrade and ultimately defeat ISIL. And I look forward to talking with you more this morning about the AUMF proposal.    Defeating ISIL is a major focus and challenge but so is Iran in the region. As the President has made clear, his top priority is preventing Iran from acquiring a nuclear weapon. Iran's nuclear ambitions continue to be a consistent area of concern for us in the Department of Defense. We are hopeful that the P5+1 negotiations will result in a comprehensive and verifiable deal that will ensure the peaceful nature of Iran's nuclear program. But at DOD, our job is to remain vigilant as well, and we do that by helping to underwrite negotiations with our robust posture and capabilities in the region, and we maintain a laser-like focus on that.    As the President has said publicly, we will do whatever is necessary to prevent Iran from acquiring a nuclear weapon, including the use of military force, if necessary, and we are postured to do that in the region today. Beyond Iran's nuclear program, we have other concerns about Iran's activities in the region. They are engaged in a variety of destabilizing activities across the region but also well beyond that. And even if we are successful in neutralizing Iran's nuclear threat through hard-nosed diplomacy, we will continue to support U.S. Government efforts to counter Iran and the full range of threats that it poses to our friends and allies in the region and beyond.    Even as we work to degrade and defeat ISIL and to prevent Iran from acquiring a nuclear weapon, we are also at the same time committed to moving to a smaller force in Afghanistan and consolidating the gains that we have made there over the past decade of international support to the Afghanistan Government. The U.S. mission in Afghanistan has helped support the Afghan people and has protected U.S. national interests by working with local partners to build up the capacity of the Afghan National Security Forces.    It is clear that we still have a lot of work to do in the next 2 years, but I think we have made some very positive strides, and I am particularly encouraged by the fact that President Ghani sees the U.S. and NATO [North Atlantic Treaty Organization] role and presence as a very important part of his strategy to bring stability and security to Afghanistan.    We are also going to continue to work with Pakistan and the Central Asian States to address existing and emerging threats in the region. Like Afghanistan, Pakistan is also facing a potent threat from extremists, and I think something we all saw tragically with the attack on the school in Peshawar. We are committed to continuing to improve our relationship with Pakistan by collaborating where our strategic interests come together and engaging diplomatically where they don't.    Meeting the range of challenges that we see in the CENTCOM AOR [area of responsibility] is going to take a lot of resources and effort, and it is important that we use those resources as effectively as possible, as Ranking Member Smith noted. The President's budget request for 2016 supports our strategy for the region and enables the services to continue to address our most critical needs, even as we get smaller and more capable over the next several years.    If sequestration returns, however, in 2016 and beyond, the Department's readiness would deteriorate markedly, which would harm our ability to respond promptly and efficiently when called upon. As a consequence, we would have fewer forces available to support operations and respond to crises in a region as vital as the Middle East.    This is a very dynamic time for our policy in the region. It is a challenging time. The Secretary has signaled his commitment to working with our government and international partners to shape a more secure region in the coming years. We are clear-eyed about the fiscal constraints we are facing, but we believe it is necessary even in the face of those constraints to maintain our commitment to protect our interests in the region and to combat the threats that we face there.    Thank you.    And I look forward to your questions.    [The prepared statement of Secretary Wormuth can be found in the Appendix on page 43.]    The Chairman. Thank you.    General.    General Austin. Good morning. Chairman Thornberry, Congressman Smith, distinguished members of the committee, I want to thank you for the opportunity to appear here today to talk about the broad efforts and the current posture of the United States Central Command.    Upfront and most importantly, I would like to thank all of you for your continued and strong support of our men and women in uniform and their families. I look forward to talking about them and about the exceptional contributions that they continue to make on behalf of the command and our Nation.    I am pleased to appear here this morning alongside Ms. Wormuth. Christine is widely respected by professionals throughout the Defense Department, both civilian and military, and we are most grateful for her support of our efforts at CENTCOM. I will join her in making a few brief opening comments and then we are prepared to answer your questions.    Ladies and gentlemen, much has happened in the CENTCOM area of responsibility since I last appeared before this committee a year ago. Indeed, the Central Region is today more volatile and chaotic than I have seen it at any other point, and the stakes have never been higher. The forces of evil that threaten our homeland and our interest in that strategically important part of the world thrive in unstable environments marked by poor governance, economic uncertainty, ungoverned or under-governed spaces. And therefore, it is essential that we be present and engaged and that we cultivate strong partnerships and continue to do our part to address emerging threats and to move the region in a direction of greater stability and security. And we must be properly resourced to do what is required to effectively protect and promote our interests.    At CENTCOM, in addition to doing all that we can to prevent problems from occurring, while shaping future outcomes, we spend a great deal of our time and energy managing real-world crisis. Over the past year, we dealt with conflicts in Iraq and Syria, we transitioned combat operations to a train, advise, and assist CT [counterterrorism]-focused mission in Afghanistan. At the same time, we dealt with a number of difficult challenges in Yemen, Egypt, Lebanon, and in a host of other locations throughout our area of responsibility. We actively pursued violent extremist groups, and we took measures to counter the radical ideologies that are espoused by these groups.    We also dealt with Iran, which continues to act as a belligerent force in the region, primarily through its Quds forces and through support to proxy actors, such as Lebanese Hezbollah. And while we are hopeful that an acceptable agreement will be reached with Iran with respect to its nuclear program, either way, whether we reach an agreement or we don't reach an agreement, Iran will continue to present a challenge for us going forward.    We are faced with a number of challenges in our region; however, I firmly believe that challenges also present opportunities, and we make progress primarily by pursuing these opportunities, and we do pursue them. And I am confident that our broad efforts are having a measurable impact. Of course, the most immediate threat facing us now is a threat posed by ISIL or Daesh [Arabic acronym for ISIL]. This barbaric organization must be defeated, and it will be defeated.    We are currently in the process of executing our regional military campaign plan, and I am pleased to report that we are making significant progress. At the outset, we said that we would need to halt ISIL's advance, and we have done that in Iraq. We said that we are going to have to regenerate and restructure Iraq's security forces to help them re-establish the border, and we are in the process of doing that right now.    We said that we would have to help our partners in the region to bolster their defenses against ISIL, and we continue to help our friends in Jordan and Lebanon and Turkey. We said that we would have to build credible ground forces to counter ISIL in Syria and to guard against ungoverned spaces, and we will soon begin doing that as a part of our Syria train and equip program.    So ladies and gentlemen, we are making progress. In fact, we are about where we said that we would be in the execution of our military campaign plan, which supports the broader whole-of-government strategy that is designed to counter ISIL. And we are having significant effects on the enemy.    Since commencing our air operations in early August, just 7 months ago, we have killed more than 8,500 ISIL fighters, we have destroyed hundreds of their vehicles along with tanks and heavy weapons systems. We have significantly degraded his capability, his ability to command and control his forces, and also his primary sources of revenue, namely, his oil refineries and his crude collection points.    The fact is that he can no longer do what he did at the outset, which is to seize and to hold new territory. He has assumed a defensive crouch in Iraq. And although he has greater freedom of movement in Syria, he is largely in a defensive there as well. He has begun to expand into other areas, namely North Africa, and in part because he knows that he is losing in Iraq and Syria and he needs to find other ways to maintain his legitimacy.    In going forward, we should expect to see this enemy continue to conduct limited attacks and to orchestrate horrific scenes in order to create IO [information operations] opportunities and to distract and to intimidate. But make no mistake, ISIL is losing this fight, and I am certain that he will be defeated. Again, he will be defeated.    Having said that, there is still work to be done to get to that point, and we intend to continue to execute the campaign as designed, and I say that because how we go about this is very important. If we don't first get things under control in Iraq, where there is a government that we can work with and with some reliable security forces that are available, if we don't get things right there first before expanding our efforts in Syria, then we risk making matters worse in both countries.    But done the right way, in light of the limitations that exist, I believe that we can and we will be successful in our efforts to defeat ISIL. And at the same time, we can be assured continued progress in pursuit of our principal goal, which is to move this strategically important region in the direction of increased stability and security.    Going forward, we will all be required to make tough choices, and we will need to find ways to do more or at least as much with less than the current fiscal environment. That said, I remain concerned by the fact that capability reductions can and will impact our ability to respond to crisis, and especially in the highly volatile Central Region. The resulting loss of flexibility makes the U.S. and our interests increasingly vulnerable to external pressures.    And so I would ask Congress to do its part to make sure that we avoid sequestration and other resourcing limitations that serve to degrade the readiness of America's military forces.    Chairman Thornberry, Ranking Member Smith, members of the committee, I want to thank you once more for the strong support that you continue to show to our service members, our civilians, and their families. They are the very best in the world at what they do. They continue to demonstrate absolute selflessness and they make enormous sacrifices in support of the mission and in support of one another. I am incredibly proud of them and I know that you are as well.    So thank you again for this opportunity, and I look forward to answering your questions.    [The prepared statement of General Austin can be found in the Appendix on page 49.]    The Chairman. Thank you, General. We share your sentiment for those who serve our Nation, including yourself.    I don't think we have time to begin the questioning, so the committee is going to stand in recess until just after the joint meeting where we will resume.    In the meantime, you all please enjoy our hospitality as best you can.    [Recess.]    The Chairman. The committee will come to order.    Again, Ms. Wormuth, and, General, thank you for your patience. And we understand the inconvenience of this coming and going, but we appreciate you all being here. Members will continue to come in as they come back from the joint meeting.    I don't know, General, did you have a chance to listen to the Prime Minister's speech?    General Austin. Yes, sir, I did.    The Chairman. Okay. You know, I was struck, your comments in your opening statement, about Iran's other activities other than its nuclear programs. And that was certainly a point that was highlighted by the Prime Minister.    You spend a lot of time dealing with military leaders throughout your region in the Middle East and North Africa. My question to you is: If there is an agreement that says that Iran shall not be closer to--that has the effect of having Iran not closer than 1 year of having a nuclear weapon, what, in your estimation, would be the reaction of other countries in the region? And I am thinking particularly about the Saudis, the Turks, the Egyptians, people who are interested in this negotiation other than Israel. What would be their reaction to that?    General Austin. Sir, no matter what the outcome is, I think there will be--always be some degree of speculation. I think the first thing that they will want to know is what the details of the agreement are before they make an assessment on how it affects their interests going forward and their security.    To your point that you made earlier, sir, I think the people--the leaders in the region certainly believe that Iran's quest for a nuclear weapon is a threat to the region. But they are also equally concerned about Iran's ability to mine the Straits, Iran's cyber capabilities, Iran's ICBM [intercontinental ballistic missile] capability or ballistic missile capability, as well as the activity of their Quds forces, which is unhelpful. And so whether we get a deal or don't get a deal, I think they will still share those concerns.    As we negotiate a deal--and I certainly hope that we are able to negotiate one, I think one of the things that we will have to do early on is to go and reassure our allies that we are going to be with them going forward. And we have--we have interest in the region that we will have to protect and we will certainly--certainly move to do that early on.    The Chairman. Yeah. When I have traveled in the region and also visited with some of their ambassadors here in Washington, one of the concerns I have heard expressed is that having Iran be a threshold nuclear state, basically being able to have it within a year or less, will embolden them with these other kind of activities that you talked about because, then, they will have less concern that the regime is threatened and, therefore, they will be more aggressive in pushing their proxies and potentially naval matters in the Persian Gulf and so forth. Is that some of the concerns that you have heard that you think allies will need to be reassured about?    General Austin. Yes, sir. I think there are arguments on both side of the fence in terms of, you know, what people speculate that Iran's reaction will be and what we will need to do to counter those reactions or hedge against unhelpful activity.    The Chairman. Yeah. Well, I am concerned not only about Israel's reaction, which we just heard, but there are a number of other countries that are vitally interested in this. And so it seems to me that that also has to be taken into account. There are lots of topics we can and should talk about, including ISIS [Islamic State of Iraq and Syria], Yemen, and Afghanistan.    But at this point, I am going to yield to Mr. Smith and other members for questions they may have.</t>
   </si>
   <si>
@@ -109,6 +121,12 @@
     <t>400209</t>
   </si>
   <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jones. Mr. Chairman, thank you very much. And to the two panelists, thank you for being here and for your service to our Nation.    I am always interested--I have been on this committee for 20 years, so I go back to the Iraq war and 9/11 and all the tragedies of 9/11.    And I heard you, Madam Secretary, and also, General Austin. You mentioned, Madam Secretary, sequestration. General Austin keeps talking about resources.    We have had the service chiefs in here recently to talk about their budgets, and I know the world is very unsettled. I know that we have a certain responsibility, first, to the American people and then to our friends in other regions of the world. I don't dispute that at all.    But I just wonder, when you--you know, you are talking about the training these security forces in Afghanistan that it is--you know, still it is going well or it is going okay--maybe is a better word than ``well.'' It is a long process.    I just wondered--I am not a great student of history, but I did study history. I just wonder how much longer can we as a nation--and you are a national figure because you are in the administration. General, you are an outstanding military man yourself.    How much longer can we keep going down this road and expect our military to continue to do this and that when their budgets are being cut behind them? And I have been a strong proponent, if we are going to get serious about the world situation, we need to have a war tax. We cannot keep playing this budget game that we keep playing here in Washington and have you come testify. And then we have to battle this thing on the floor of the House, the chairman and ranking member do, of trying to salvage whatever money we can salvage.    So my point is: Are we getting to a point that--as I think General Austin said, aren't we at a point that we need to say the administration military leaders, you know, you and Saudi, you have got a lot of troops, put your troops on the ground. We have got 100 to 200,000 Iraqis in the military. I know what we are trying to do. Some approximations I have heard is 20 to 30,000 fighters. General Austin, you say we have already killed 8,000. So let's take the high figure of 30,000 jihadists and reduce that to 20. I don't understand the numbers of this thing, the financial numbers, nor do I understand the numbers of kill.    And how in the world are we going to continue to expand and send our troops around the world and try to take care of everybody else's problems if they won't step up and take care of it themselves and say to America, ``You back us up, but we are going to be the frontline troops''? I don't know--I am not criticizing the administration. I just don't know how much longer this game can keep going on.</t>
   </si>
   <si>
@@ -121,6 +139,12 @@
     <t>412193</t>
   </si>
   <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman, and thank you to the witnesses.    Again, just to go back for a moment regarding some of your testimony concerning our relationship with the Israeli Government and military. Again, General Dempsey has been before this committee a number of times and talked about how the mil-to-mil connection with Israel has a special sort of quality in nature that really is almost not matched anywhere in the world. And I was wondering, General, if you could sort of just kind of characterize that in terms of your own experience?    And, Ms. Wormuth, you know, you mentioned, you know, that this is something that is ongoing and that will be there with or without an agreement. I was wondering, again, if you could just sort of underscore that point?    General Austin. And, sir, I believe the question is, our military-to-military relationship with Israel?    As you know, sir, Israel falls in European Command's area of responsibility. But we certainly--since it borders our region of responsibility or our area of responsibility, we certainly see a need to maintain good connectivity.    I had a great relationship with the former chief of defense there, with Benny Gantz. And I have not had a chance to meet the new--or his replacement, but I have met him on a VTC [video teleconference] where he and Benny and I, you know, along with General Breedlove, were able to share some ideas and concerns.    And so my hope--and I know this will be the case--is that we will continue to have a very, very strong relationship going forward. But, again, that--that--Israel is outside of my area of responsibility.</t>
   </si>
   <si>
@@ -136,6 +160,12 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman.    General, recently we have heard a lot about Patriot batteries and the Army air defenders being stretched to their breaking point. And, in fact, recently deputy commander of the 32nd Air and Missile Defense Command stated this: ``Today we have air and missile defense forces in nine countries. On any given day, nearly half of the Army's Patriot batteries are outside the continental United States and we have begun forward deploying THAAD [Terminal High Altitude Area Defense] batteries. We are rapidly approaching an inflection point where we face the risk of breaking our AMD, our air missile defense force.''    I have two questions. First, as the imminent modernization of this system creates further strains on the deployment capability, what are your concerns as a combatant commander? And the second question is, what are the alternatives to drawing down force structure to make sure we don't deny our combatant commanders the capability they need?    General Austin. Sir, on the first question, in terms of a combatant commander's perspective on this, while I certainly share the Army services' concerns in being able to manage the op [operations] tempo of its people, I think that is very, very important. But as you take a look at the emerging threats in the region, in the Central Region, certainly I remain concerned about Iran's ballistic missile capability. Now they continue to gain more capability and that capability is more accurate and more lethal as we go forward. So I think there is a need--there will remain a need for a good air defense capability to make sure that we protect our interest in the region and also to be able to work with our allies in the region.    In terms of ways to mitigate this, we are going to have to continue to work with the allies to help them develop capacity and capability to, again, not only take care of their own sovereign territory, but also add to, you know, the greater potential, the greater capability in the region. And we have a long way to go in that endeavor, but I think that that is--that is one of the major ways that we can look to address this issue going forward.</t>
   </si>
   <si>
@@ -151,6 +181,12 @@
     <t>412254</t>
   </si>
   <si>
+    <t>Tsongas</t>
+  </si>
+  <si>
+    <t>Niki</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman. And thank you both for being here. Sorry we had that break that took us away for such a while.    You know, it has been said--and I think as we--in hearing Mr. Netanyahu's speech today and hearing your comments, that the challenges in the Middle East are like, at least, a three-dimensional chess game, and I think actually there are probably even more layers to that.    And I think the fact that we have been given the opportunity to consider an AUMF is very important. It allows the Congress to weigh in and think through the implications of what we are doing and how best to achieve success. But, again, given that it is so multidimensional, it is actually rather hard to grapple with. I think we are all struggling with that.    But I--and I think--I just happened to read in the paper today that Iran is actually playing a significant role in Tikrit. That their forces are there, you know, helping--helping push back on ISIL. And I think that highlights the complexity of the region. While we are trying to negotiate an agreement on their nuclear weaponization at the same time, we are taking--or taking advantage of their assistance. And I am curious, General Austin, how you think this through?    General Austin. Well, it certainly is a complex situation, ma'am. Thanks.    Obviously, we are focused on helping--providing support to the country, the Government of Iraq in its efforts to counter ISIL. And this is a--this is an Iraqi effort. The Iraqis have to do this. We will enable their efforts with our air power, with our advice, and the assistance in any way we can. But at the end of the day, they have to be able to do this.    And, certainly, there are areas in the eastern part of the country that they have--leading up to this point that they have gained assistance from their neighbor with and the popular mobilization forces that are there working. So if you look at the areas in the eastern part of the country, Jalula, Khanaqin, they have worked together in those areas. And then leading up to this, they have done a number of things to get to this point.    So, in terms of sorting this out, again, our focus is on the Government of Iraq and working with the Government of Iraq to provide assistance to them to counter ISIL.</t>
   </si>
   <si>
@@ -166,6 +202,12 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Franks</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Franks. Well, thank you, Mr. Chairman.    Thank you both for being here.    Ms. Wormuth, I would kind of take off on a question Ms. Tsongas touched on. Can you provide us with the--sort of the official DOD policy on military cooperation with Iran forces on the ground in Iraq?</t>
   </si>
   <si>
@@ -184,6 +226,12 @@
     <t>412382</t>
   </si>
   <si>
+    <t>Garamendi</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Garamendi. Thank you, Mr. Chairman.    Secretary Wormuth and General Austin, thank you very much for your service and for the information you have provided for us today. I appreciate that.    I want to follow up on some of the questions that my colleague was asking a moment ago and very specifically, General, can ISIS be degraded and defeated without U.S. ground forces, i.e., infantry brigades, artillery, armor?    General Austin. Sir, I think they can, and they will. But they will use--we will use the Iraqi security forces and the Peshmerga forces to do this. And I think, you know, we have advisors on the ground and how we employ those advisors will be--you know I will make a decision on that and request for authorities on a case-by-case basis.</t>
   </si>
   <si>
@@ -217,6 +265,12 @@
     <t>412409</t>
   </si>
   <si>
+    <t>Nugent</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman. And thank you, Ms. Wormuth, and, General Austin, particularly for your service to this country.    You know, when I hear--when we talk about Iran and Iran's troops or advisors or whatever they are calling them assisting Iraq, what I worry is that the sectarian violence that Iran really does push. And in 2011, you know, when Maliki was beholding to Iran and Hezbollah actually attacked our troops with an IRAM [improvised rocket assisted mortar], Iranian warhead and killed five of our 1st Infantry Division kids the night that I was in Iraq, the night that my son was with the 1st Infantry Division.    So I wonder how this is going to play out if we allow Iran to have that kind of play today if, in fact, we do have to use some special forces or something other than a brigade-sized team to assist the Iraqis? How is that going to play out, particularly with Iran's past performance in supporting terrorism across the world but particularly Hezbollah and particularly killing American troops just, you know, 4 years ago?    General Austin. Sir, I certainly share your concern with the possibility of increasing sectarian activity as we go forward. And this is something that we continue to emphasize, again, with the Government of--to the Government of Iraq that, you know, they must be mindful of this. They must control the activities of Shia militia. They must guard against any kind of atrocities going forward of those elements. And they have to be, most importantly, inclusive of the Sunnis and the Kurds. And I think that is the biggest piece in this equation. And when that is done, I think you see the Sunnis coming into the government a bit more and balancing things out.    So I--you know, I was in Iraq. I was a commander of Iraq when that IRAM attack occurred. I was the first senior officer on the scene there to--you know, after that attack and worked with Colonel Gainey who was then Lieutenant Colonel Gainey. Now he is 0-6 [Colonel] Gainey. But some tremendous 1st [Infantry] Division soldiers there, great--great courage and great discipline.    But clearly I share your concern. We are going to do everything we can to encourage the Iraqi Government to stay focused on this, to be inclusive of the Sunnis and the Kurds. And I think, if they do that, I think this comes out in a better place.</t>
   </si>
   <si>
@@ -235,6 +289,9 @@
     <t xml:space="preserve">    Mr. Nugent. Okay.    Thank you, Mr. Chairman.    Sorry I ran out of time.    The Chairman. Thank you.    Mr. O'Rourke.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    Ms. Wormuth, General Austin said that ISIS could be defeated without using U.S. ground troops. I am assuming--and, General Austin, you alluded to this--that would be primarily through the use of Iraqi ground troops. Are there any other partners who have committed to joining those Iraqi ground troops to defeat ISIS in Iraq?</t>
   </si>
   <si>
@@ -301,6 +358,12 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Wenstrup</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Chairman. And thank you both for being here today to take our questions and inform us on many things.    My first question is: How many nations are considered part of the coalition of this fight in Iraq today?</t>
   </si>
   <si>
@@ -337,6 +400,12 @@
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you very much, Mr. Chairman.    Thank you both for being here.    Ms. Wormuth, following up on a statement that you made a few minutes ago, why is it the administration's position that a single federal Iraqi state is necessary to defeating ISIS when the reality is that it is this single federal Shia-led, Iranian-influenced central government in Baghdad that has oppressed the Sunni people, created the oxygen for ISIS to come in and take advantage where the Sunnis have been forced to look in that direction in order to escape the oppression and persecution of this Shia-led government, and that this is the main cause for ISIS growing in its presence and strength in Iraq today?</t>
   </si>
   <si>
@@ -361,6 +430,12 @@
     <t>412648</t>
   </si>
   <si>
+    <t>Stefanik</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman.    And thank you to both of the witnesses here today.    We have spoken a lot about Iraq, Iran, and I want to turn toward Syria.    Ms. Wormuth, what is the U.S. policy toward the Assad regime? And the reason I am asking this question is, I believe that the brutality of the Assad regime has contributed greatly to the ability for ISIS to rise and gain strongholds in Syria.</t>
   </si>
   <si>
@@ -385,6 +460,12 @@
     <t>412632</t>
   </si>
   <si>
+    <t>Moulton</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Moulton. Thank you, Mr. Chairman.    And General Austin, thank you very much for your service.    And Ms. Wormuth, thank you for your service as well.    Ms. Wormuth, you said earlier that Maliki sectarian approach to governing is how we got here, and there are a lot of nodding heads around the room. What are we doing in our plan going forward to ensure that that doesn't happen again?</t>
   </si>
   <si>
@@ -433,6 +514,12 @@
     <t>412444</t>
   </si>
   <si>
+    <t>Hartzler</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Hartzler. Thank you, Mr. Chairman.    Thank you so much for being here today. Very important questions and topics. And one that I think hasn't been touched on, I am very concerned about, is the basically eradication of Christians in Iraq. At one time, over 1.5 million Christians there. Now we estimate between, what, 200 and 300,000 perhaps. Maybe you have some insights on the numbers there. But certainly that is the birthplace of many of famous Christian historic sites.    And the reports last week of ISIL burning hundreds or thousands of years old documents and destroying religious sites is certainly very, very disturbing.    So first, I was wondering if you could give me an update on the situation for Christians there, both in their persons and their safety, how many are still there, what their situation is, their well-being, but then also give me an update on the ISIL strategy and how many historic sites have been destroyed?</t>
   </si>
   <si>
@@ -466,6 +553,12 @@
     <t>412611</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    General Austin, I want to switch to the topic of combat search and rescue [CSAR]. And I was retired colonel A-10 pilot but also ran the Joint Search and Rescue Center for CENTCOM Forward for JTF-SWA [Joint Task Force-Southwest Asia] in the early days of the Afghanistan operations.    And my concern is, with our operations in Iraq and Syria, I have been hearing from some colleagues that we have limitations on the combat search and rescue. The Jordanian pilot, as you know, has strategic implications with how he was murdered in a horrific way.    And we have got our pilots flying single-engine F-16s into Iraq and Syria today. And in order to make sure that if they have to eject, even if they are not shot down, that we have somebody overhead right away, on-scene commander and then somebody else right behind them to immediately locate, communicate, and protect them, shoot anything that moves, that comes anywhere near them, in that geography you can't hide. It takes a very robust capability of ground-alert assets, airborne-alert assets.    The A-10, which I flew, is the only one that provides a rescue mission commander, SANDY One and SANDY Two, to be able to get to them and then the helicopter should go in and get them. And we have got to snatch them right away, as you know, because if they get picked up then it is disastrous consequences, not just for them and their family but strategically for our country. Can you imagine if we had now an American pilot that is the next one captured?    So I know you know this is a challenge, but my question is, and I am asking for a classified briefing, what was the CSAR posture when we first started flying sorties there and specifically when the Jordanian pilot ejected, and has it changed since then? And are you limited at all from the arbitrary 3,100-person boots-on-the-ground cap by this administration to make sure that we have a posture that provides what I just described; that we have a covenant with those that are flying sorties are on the ground; that we are going to go get them, that we are going to rescue them.    I have concerns from talking to my colleagues in the military that there is a pretty damning after-action report from the Jordanian pilot situation, and I am deeply concerned that we don't have the combat search and rescue capability.    Also, if you only have 12 A-10s over there and they are the only ones that can do the SANDY mission plus close air support, why don't we bring more over? What are your limitations? What can we do moving forward?    General Austin. Let me assure you, Congresswoman, that I won't put one pilot in the air if I don't feel like I have the adequate means to recover those pilots. In working with my senior airmen and my air component, I think they have done a masterful job of ensuring that we have adequate coverage in a number of places to address our CSAR issues.    As you know, we have forward-deployed CSAR capabilities currently, and we also are looking to perhaps put CSAR capability in other places, like Turkey, and we continue to work that.    So I am confident that we have the adequate means to take care of our pilots, and if I feel that the risk has increased to the point where I need to, we will put CSAR assets in the air while the mission is being conducted. And we have done that and we will continue to do that.</t>
   </si>
   <si>
@@ -496,6 +589,12 @@
     <t>412538</t>
   </si>
   <si>
+    <t>Walorski</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Walorski. Thank you, Mr. Chairman.    General Austin, you have been deployed on several operational tours in both Iraq and Afghanistan. What limitations have other AUMFs placed on your missions and operational abilities, number one; number two, if in your operational experience you have been most effective as accomplishing your mission without AUMF limitations, why would this AUMF provide you with the quote, unquote, ``flexibility'' you need to accomplish this mission?    General Austin. Well, you know, certainly, I have been involved in, over the last decade-plus, in fighting in Afghanistan and Iraq. And we have had what we needed to have to accomplish our goals and objectives in both instances.    In terms of any limitations that this current--the proposed AUMF would place on us, the way it is laid out to--I think we will have what we need, we will have the flexibility to address the counter-ISIL campaign.    And so to accomplish what has been given to me in this current mission set, I think we have the flexibility to get the work done.</t>
   </si>
   <si>
@@ -512,6 +611,9 @@
   </si>
   <si>
     <t>412271</t>
+  </si>
+  <si>
+    <t>Coffman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. No, Mr. Chairman.    The Chairman. Okay.    Thank you, all, for your patience. A vote came just in time.    And so we appreciate both of you and the challenges that you face in sorting through a very difficult, messy situation in the Central Command area of responsibility.    Thank you again for being here today, and we will look forward to further discussions.    With that, the hearing stands adjourned.</t>
@@ -863,7 +965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,7 +973,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,3341 +995,3927 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
       <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
       <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
       <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
       <c r="H34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G36" t="s">
+        <v>62</v>
+      </c>
       <c r="H36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
       <c r="H37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
       <c r="H38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
       <c r="H39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
       <c r="H40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G41" t="s">
+        <v>70</v>
+      </c>
       <c r="H41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
       <c r="H43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
       <c r="H45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
       <c r="H46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
       <c r="H47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G48" t="s">
+        <v>70</v>
+      </c>
       <c r="H48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G49" t="s">
+        <v>83</v>
+      </c>
       <c r="H49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G50" t="s">
+        <v>83</v>
+      </c>
       <c r="H50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G51" t="s">
+        <v>83</v>
+      </c>
       <c r="H51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G52" t="s">
+        <v>83</v>
+      </c>
       <c r="H52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G54" t="s">
+        <v>83</v>
+      </c>
       <c r="H54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>91</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>91</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>91</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>94</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G76" t="s">
+        <v>114</v>
+      </c>
       <c r="H76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G78" t="s">
+        <v>114</v>
+      </c>
       <c r="H78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G80" t="s">
+        <v>114</v>
+      </c>
       <c r="H80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>94</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G82" t="s">
+        <v>114</v>
+      </c>
       <c r="H82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>94</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G83" t="s">
+        <v>114</v>
+      </c>
       <c r="H83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G84" t="s">
+        <v>114</v>
+      </c>
       <c r="H84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I84" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>94</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G85" t="s">
+        <v>114</v>
+      </c>
       <c r="H85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G86" t="s">
+        <v>114</v>
+      </c>
       <c r="H86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>106</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G87" t="s">
+        <v>128</v>
+      </c>
       <c r="H87" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>106</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G89" t="s">
+        <v>128</v>
+      </c>
       <c r="H89" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>106</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G91" t="s">
+        <v>128</v>
+      </c>
       <c r="H91" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>106</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G92" t="s">
+        <v>128</v>
+      </c>
       <c r="H92" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>106</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G93" t="s">
+        <v>128</v>
+      </c>
       <c r="H93" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>114</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G94" t="s">
+        <v>138</v>
+      </c>
       <c r="H94" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>114</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G96" t="s">
+        <v>138</v>
+      </c>
       <c r="H96" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I96" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>114</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G98" t="s">
+        <v>138</v>
+      </c>
       <c r="H98" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>114</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G100" t="s">
+        <v>138</v>
+      </c>
       <c r="H100" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>122</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G101" t="s">
+        <v>148</v>
+      </c>
       <c r="H101" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>122</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G103" t="s">
+        <v>148</v>
+      </c>
       <c r="H103" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>122</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G105" t="s">
+        <v>148</v>
+      </c>
       <c r="H105" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>122</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G107" t="s">
+        <v>148</v>
+      </c>
       <c r="H107" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>122</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G108" t="s">
+        <v>148</v>
+      </c>
       <c r="H108" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I108" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>122</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G109" t="s">
+        <v>148</v>
+      </c>
       <c r="H109" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>122</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G110" t="s">
+        <v>148</v>
+      </c>
       <c r="H110" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>122</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G111" t="s">
+        <v>148</v>
+      </c>
       <c r="H111" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>122</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G113" t="s">
+        <v>148</v>
+      </c>
       <c r="H113" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>122</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G115" t="s">
+        <v>148</v>
+      </c>
       <c r="H115" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I115" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>138</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G116" t="s">
+        <v>166</v>
+      </c>
       <c r="H116" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I116" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>138</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G119" t="s">
+        <v>166</v>
+      </c>
       <c r="H119" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I119" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>138</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G121" t="s">
+        <v>166</v>
+      </c>
       <c r="H121" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I121" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>138</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G123" t="s">
+        <v>166</v>
+      </c>
       <c r="H123" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I123" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>138</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G125" t="s">
+        <v>166</v>
+      </c>
       <c r="H125" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I125" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>149</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G126" t="s">
+        <v>179</v>
+      </c>
       <c r="H126" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I126" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>149</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G127" t="s">
+        <v>179</v>
+      </c>
       <c r="H127" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I127" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>149</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G128" t="s">
+        <v>179</v>
+      </c>
       <c r="H128" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I128" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>149</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G129" t="s">
+        <v>179</v>
+      </c>
       <c r="H129" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I129" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>149</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G130" t="s">
+        <v>179</v>
+      </c>
       <c r="H130" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I130" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G131" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G133" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>159</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>190</v>
+      </c>
+      <c r="G135" t="s">
+        <v>191</v>
+      </c>
       <c r="H135" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I135" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>159</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>190</v>
+      </c>
+      <c r="G136" t="s">
+        <v>191</v>
+      </c>
       <c r="H136" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I136" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>159</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>190</v>
+      </c>
+      <c r="G137" t="s">
+        <v>191</v>
+      </c>
       <c r="H137" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I137" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>159</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>190</v>
+      </c>
+      <c r="G138" t="s">
+        <v>191</v>
+      </c>
       <c r="H138" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I138" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>159</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>190</v>
+      </c>
+      <c r="G139" t="s">
+        <v>191</v>
+      </c>
       <c r="H139" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I139" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>165</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G140" t="s">
+        <v>199</v>
+      </c>
       <c r="H140" t="s">
-        <v>166</v>
+        <v>49</v>
+      </c>
+      <c r="I140" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94217.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400379</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -119,6 +125,9 @@
   </si>
   <si>
     <t>400209</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Jones</t>
@@ -965,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,7 +982,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,3924 +1007,4232 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I32" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I36" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="H50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I51" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>91</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>94</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>91</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>91</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>91</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>94</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>91</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>91</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>94</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>91</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>94</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>91</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>94</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>91</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>94</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>91</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>94</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G76" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="H76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I76" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G78" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="H78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I78" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G80" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="H80" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I80" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G82" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="H82" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I82" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G83" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="H83" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I83" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G84" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="H84" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I84" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G85" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="H85" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I85" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J85" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G86" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I86" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G87" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="H87" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G89" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="H89" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I89" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G91" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="H91" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I91" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G92" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="H92" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I92" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G93" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="H93" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I93" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G94" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="H94" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I94" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G96" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="H96" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I96" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>17</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G98" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="H98" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I98" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>17</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G100" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="H100" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I100" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G101" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="H101" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I101" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J101" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s">
-        <v>17</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G103" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="H103" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I103" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s">
-        <v>17</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G105" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="H105" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I105" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J105" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s">
-        <v>17</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G107" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="H107" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I107" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J107" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G108" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="H108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I108" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J108" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G109" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="H109" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I109" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J109" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G110" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="H110" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I110" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J110" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G111" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="H111" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I111" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J111" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s">
-        <v>17</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G113" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="H113" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I113" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J113" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s">
-        <v>17</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G115" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="H115" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I115" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J115" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G116" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="H116" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I116" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J116" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s">
-        <v>17</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s">
-        <v>17</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G119" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="H119" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I119" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J119" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s">
-        <v>17</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G121" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="H121" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I121" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J121" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s">
-        <v>17</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G123" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="H123" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I123" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J123" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s">
-        <v>17</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>19</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G125" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="H125" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I125" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J125" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G126" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="H126" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I126" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J126" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G127" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="H127" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I127" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J127" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G128" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="H128" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I128" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="J128" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G129" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="H129" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I129" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J129" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G130" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="H130" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I130" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J130" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s">
-        <v>17</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>19</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s">
-        <v>17</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>19</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s">
-        <v>17</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>19</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s">
-        <v>17</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G135" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="H135" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I135" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="J135" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G136" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="H136" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I136" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="J136" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G137" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="H137" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I137" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="J137" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G138" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="H138" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I138" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="J138" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G139" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="H139" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I139" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="J139" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G140" t="s">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c r="H140" t="s">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="I140" t="s">
-        <v>200</v>
+        <v>52</v>
+      </c>
+      <c r="J140" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
